--- a/TBILLS.xlsx
+++ b/TBILLS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF8AAA3F-D4D4-4F41-86A6-B6376EE20A33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -49,9 +50,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -69,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +80,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -94,18 +101,19 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -201,6 +209,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -236,6 +261,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,18 +478,18 @@
       </c>
       <c r="F2">
         <f ca="1">B3-B2</f>
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>43342</v>
+        <v>43328</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>99.841999999999999</v>
+        <v>99.912999999999997</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -456,7 +498,7 @@
       </c>
       <c r="F4">
         <f>((100-F3)/F3)</f>
-        <v>1.5825003505538877E-3</v>
+        <v>8.7075755907642946E-4</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -465,7 +507,7 @@
       </c>
       <c r="F5" s="4">
         <f ca="1">(365/F2)*F4</f>
-        <v>1.6988606704475558E-2</v>
+        <v>1.5891325453144839E-2</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -474,15 +516,15 @@
       </c>
       <c r="F7">
         <f>100-F3</f>
-        <v>0.15800000000000125</v>
+        <v>8.7000000000003297E-2</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>80000</v>
+      <c r="F8" s="8">
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -491,7 +533,7 @@
       </c>
       <c r="F9">
         <f>+(F8/100)*F7</f>
-        <v>126.400000000001</v>
+        <v>43.500000000001648</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -505,14 +547,14 @@
       </c>
       <c r="F11" s="5">
         <f>+F8*F4</f>
-        <v>126.60002804431102</v>
+        <v>43.537877953821472</v>
       </c>
       <c r="G11">
         <v>-7.5</v>
       </c>
       <c r="H11" s="7">
         <f>+G11+F11</f>
-        <v>119.10002804431102</v>
+        <v>36.037877953821472</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -521,14 +563,14 @@
       </c>
       <c r="F12" s="6">
         <f ca="1">+F5*F8</f>
-        <v>1359.0885363580446</v>
+        <v>794.56627265724194</v>
       </c>
       <c r="G12">
         <v>-7.5</v>
       </c>
       <c r="H12" s="7">
         <f ca="1">+G12+F12</f>
-        <v>1351.5885363580446</v>
+        <v>787.06627265724194</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
